--- a/app/data/companies.xlsx
+++ b/app/data/companies.xlsx
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +790,56 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>567 87 hiksdv adkfu s kwjehfad</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Something Private Limited</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Private Limited</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1990-11-03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patel Nagar, New Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>something private limited</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Private Limited</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1990-11-03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hgjkoyu thjjhuouk asdkj 78iuj</t>
         </is>
       </c>
     </row>
@@ -804,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1283,118 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>dfgh rtyu 5678 dfgh tyuj</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>New Delhi, Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Anshul</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>New Delhi, Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>gkhjlk</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>fcvbhji7ytgvbnju</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hgjhkn,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>vghui87rrt678uijk</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1616,6 +1778,130 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MeetingType.BM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AttendanceMode.physical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Anu</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.meeting.com/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MeetingDay.Monday</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>14:28</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Patel Nagar, New Delhi, Delhi</t>
+        </is>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MeetingType.BM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AttendanceMode.physical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>tghjikjn</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://some.com/</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MeetingDay.Tuesday</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14:22</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>hio987tghuiokm</t>
+        </is>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
